--- a/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
+++ b/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>inCREDIT_Func_Get_OPT_Amount</t>
+  </si>
+  <si>
+    <t>判斷輸入按鍵為數字1~9之間，設定Lcd顯示的設定(DisplayObject)，
+並顯示圖片在Lcd上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inDISP_Enter8x16_GetAmount:
+在此Function接收按鍵事件，轉換金額格式為幣別代號 +金額+Comma+靠左靠右，顯示在Lcd上面，直到按下取消或是確認鍵跳出此Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
+  pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
+  pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +80,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +148,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +183,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +365,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
+++ b/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
@@ -24,19 +24,19 @@
     <t>inCREDIT_Func_Get_OPT_Amount</t>
   </si>
   <si>
-    <t>判斷輸入按鍵為數字1~9之間，設定Lcd顯示的設定(DisplayObject)，
-並顯示圖片在Lcd上</t>
+    <t>pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
+  pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
+  pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷輸入按鍵為數字1~9之間，設定螢幕顯示的設定(DisplayObject)，
+並顯示圖片在螢幕上(請輸入金額+請按確認或取消鍵)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inDISP_Enter8x16_GetAmount:
-在此Function接收按鍵事件，轉換金額格式為幣別代號 +金額+Comma+靠左靠右，顯示在Lcd上面，直到按下取消或是確認鍵跳出此Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
-  pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
-  pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
+在此Function接收按鍵事件，轉換金額格式為幣別代號 +金額+Comma+靠左靠右，顯示在螢幕上面，直到按下取消或是確認鍵跳出此Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -384,17 +384,17 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
+++ b/SRC/FlowChart/inCREDIT_Func_Get_OPT_Amount.xlsx
@@ -19,24 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>inCREDIT_Func_Get_OPT_Amount</t>
-  </si>
-  <si>
-    <t>pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
-  pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
-  pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判斷輸入按鍵為數字1~9之間，設定螢幕顯示的設定(DisplayObject)，
-並顯示圖片在螢幕上(請輸入金額+請按確認或取消鍵)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inDISP_Enter8x16_GetAmount:
-在此Function接收按鍵事件，轉換金額格式為幣別代號 +金額+Comma+靠左靠右，顯示在螢幕上面，直到按下取消或是確認鍵跳出此Function</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>判斷是否輸入按鍵數字1~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷當筆是否ECR發動，若ECR或idle有輸入金額就跳走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螢幕設定，包含顯示第幾行、靠左靠右、限制最長長度、inMenuKeyIn第一位、不接受輸入零、字型顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螢幕顯示圖片(請輸入金額、請按確認或取消)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存第一個輸入鍵，while迴圈每次取得按鍵或是一個點擊事件，如果是按數字鍵，會判斷輸入長度是否超過上限，並把輸入結果存在一個buffer上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示輸入金額 ，格式為幣別 + 金額+Comma +靠右/靠左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入取消或是超時透過return直接跳出整個function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入確認鍵，判斷能否輸入零或是金額能否傳出去(ByPass)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inDISP_Enter8x16_GetAmount </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inCREDIT_Func_Get_OPT_Amount </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超時或是交易取消，就跳出inCREDIT_Func_Get_OPT_Amount function，否則設定BATCH_REC的lnTxnAmount 、 lnOrgTxnAmount、lnTotalTxnAmount 金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,40 +390,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>